--- a/app/config/tables/QPS/forms/dados_adicional/dados_adicional.xlsx
+++ b/app/config/tables/QPS/forms/dados_adicional/dados_adicional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\dados_adicional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936A112-07A1-4FEA-AA7A-4176D78C760D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4ABA5-B8F4-485F-A77B-CDA7C602DF32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
   <si>
     <t>type</t>
   </si>
@@ -1260,10 +1260,10 @@
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1439,7 +1439,6 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="32"/>
@@ -3038,10 +3037,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3067,51 +3066,51 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -3119,23 +3118,23 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
@@ -3143,23 +3142,23 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -3167,15 +3166,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3183,7 +3182,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3191,23 +3190,23 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -3215,72 +3214,76 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="23"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="15"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="15"/>
@@ -3325,6 +3328,10 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
